--- a/resumen_preciosfaltantes.xlsx
+++ b/resumen_preciosfaltantes.xlsx
@@ -13,11 +13,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t xml:space="preserve">VARIEDAD</t>
   </si>
   <si>
+    <t xml:space="preserve">DESCRIPCION</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENERO</t>
   </si>
   <si>
@@ -27,136 +30,268 @@
     <t xml:space="preserve">C10711205</t>
   </si>
   <si>
+    <t xml:space="preserve">Otros productos de panaderia n.c.p.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10611102</t>
   </si>
   <si>
+    <t xml:space="preserve">Harina de trigo dura</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11011102</t>
   </si>
   <si>
+    <t xml:space="preserve">Rones</t>
+  </si>
+  <si>
     <t xml:space="preserve">C22201103</t>
   </si>
   <si>
+    <t xml:space="preserve">Sacos</t>
+  </si>
+  <si>
     <t xml:space="preserve">C22201104</t>
   </si>
   <si>
+    <t xml:space="preserve">Bolsas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C17091101</t>
   </si>
   <si>
+    <t xml:space="preserve">Papel higiénico</t>
+  </si>
+  <si>
     <t xml:space="preserve">C17091102</t>
   </si>
   <si>
+    <t xml:space="preserve">Servilletas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C17091103</t>
   </si>
   <si>
+    <t xml:space="preserve">Toallas sanitarias</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10301104</t>
   </si>
   <si>
+    <t xml:space="preserve">Arvejas envasadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20112109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peróxido de hidrógeno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10301406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melocotones en conserva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14101107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-shirts de hombre y mujer de punto o ganchillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14101104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calzoncillos, pijamas de hombre de punto o ganchillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14101102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camisas, camisetas de mujer o niña de punto o ganchillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14101118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantalones largos y cortos para mujeres o niñas que no sean de punto o ganchillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10801104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimento o concentrado pecuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10801102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimento o cencentrado para aves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11041101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bebidas carbonatadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11041103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jugos y refrescos artificiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10301108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frijol en grano empacado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10501201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quesos frescos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10613102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10791109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sopas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10791105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condimientos y especias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C31001106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escritorios de oficina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C31001101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muebles de metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10791111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Café tostado y molido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morteros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20121102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otros fertilizantes nitrogenados y mezclas, n.c.p.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20121101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fertilizantes minerales que contienen tres nutrientes: nitrógeno, fosfatos y potasio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25991103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caja o buzones de seguridad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11031101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerveza con alcohol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C32501101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dientes artificiales o protesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C30911101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motocicletas</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10201201</t>
   </si>
   <si>
-    <t xml:space="preserve">C20112109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10301406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14101107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14101104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14101102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14101118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10801104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10801102</t>
+    <t xml:space="preserve">Crustáceos, congelados varios</t>
   </si>
   <si>
     <t xml:space="preserve">C25121101</t>
   </si>
   <si>
-    <t xml:space="preserve">C11041101</t>
+    <t xml:space="preserve">Cisterna capacidad mayor  a 300 litros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29201101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furgones para transporte de mercaderia</t>
   </si>
   <si>
     <t xml:space="preserve">C11041201</t>
   </si>
   <si>
-    <t xml:space="preserve">C11041103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10301108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10501201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10613102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10791109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10791105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C31001106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C31001101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10791111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23951103</t>
+    <t xml:space="preserve">Agua pura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10612101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arroz entero y quebrado (excepto precocido)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13991101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinta elastica</t>
   </si>
   <si>
     <t xml:space="preserve">C17021201</t>
   </si>
   <si>
-    <t xml:space="preserve">C20121102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C20121101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25991103</t>
+    <t xml:space="preserve">Productos elaborados de desperdicios y desechos de papel o cartón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23941101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cemento portland gris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">C13111101</t>
   </si>
   <si>
+    <t xml:space="preserve">Hilados de algodón (excepto hilo de coser), que contiene 85% o más en peso de algodón</t>
+  </si>
+  <si>
     <t xml:space="preserve">C13111102</t>
   </si>
   <si>
-    <t xml:space="preserve">C11031101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C32501101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C30911101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C29201101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10612101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C13991101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23941101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">Hilados de filamentos artificiales o sintéticos</t>
   </si>
 </sst>
 </file>
@@ -498,411 +633,441 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
       </c>
       <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
       </c>
       <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
       </c>
       <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
       </c>
       <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
       </c>
       <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
       </c>
       <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
       </c>
       <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
       </c>
       <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
       </c>
       <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
       </c>
       <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
       </c>
       <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
       </c>
       <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
       </c>
       <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="n">
+      <c r="D32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -930,92 +1095,201 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
       </c>
       <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
       </c>
       <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
       </c>
       <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
     </row>

--- a/resumen_preciosfaltantes.xlsx
+++ b/resumen_preciosfaltantes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t xml:space="preserve">VARIEDAD</t>
   </si>
@@ -24,6 +24,12 @@
     <t xml:space="preserve">ENERO</t>
   </si>
   <si>
+    <t xml:space="preserve">FEBRERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARZO</t>
+  </si>
+  <si>
     <t xml:space="preserve">total</t>
   </si>
   <si>
@@ -213,6 +219,72 @@
     <t xml:space="preserve">Caja o buzones de seguridad</t>
   </si>
   <si>
+    <t xml:space="preserve">C21001110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ungüento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10401102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aceite de palma, crudo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13121104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telas artificiales con un contenido de 85% o mas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13121102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telas con un contenido del 85% o más en peso de algodón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20291108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprestos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20231109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detergente y preparaciones para lavar liquido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23921204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baldosas o fachaletas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adoquin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23951101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Articulos de hormigon o concreto</t>
+  </si>
+  <si>
     <t xml:space="preserve">C11031101</t>
   </si>
   <si>
@@ -292,6 +364,36 @@
   </si>
   <si>
     <t xml:space="preserve">Hilados de filamentos artificiales o sintéticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10711102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pan frances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10711101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pan dulce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22191101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guantes y gabachas de caucho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12001101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabaco sin tallo y curado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10401301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aceite de origen vegetal</t>
   </si>
 </sst>
 </file>
@@ -636,438 +738,850 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,164 +1612,236 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B13"/>
       <c r="C13" t="n">
@@ -1264,32 +1850,150 @@
       <c r="D13" t="n">
         <v>1</v>
       </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
         <v>1</v>
       </c>
     </row>
